--- a/Godlibrary/Excel/data_unit.xlsx
+++ b/Godlibrary/Excel/data_unit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\islay\Google ドライブ\52prj\end\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FreewheelExciter\Godlibrary\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1946,13 +1946,689 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>下級職</t>
+    <rPh sb="0" eb="3">
+      <t>カキュウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上級職</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウキュウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・黄色は初期からいる兵種</t>
+    <rPh sb="1" eb="3">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘイシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのような職業がいるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このファイルに書いてあること…</t>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その職業の特徴やステータス関連</t>
+  </si>
+  <si>
+    <t>職業のちょっとした説明</t>
+    <rPh sb="0" eb="2">
+      <t>ショクギョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下級職→上級職の流れ</t>
+    <rPh sb="0" eb="3">
+      <t>カキュウショク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ジョウキュウショク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵種の特徴</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイシュ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※ゲームのヘルプメッセージで出す程度の文量、1つ目にキャッチコピー　2つ目にゲーム中の特徴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵種上限値</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイシュ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジョウゲンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・全職業一律なところ…HP：60　幸運：30　移動力：15</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンショクギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチリツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウウン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>イドウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・下級職は特筆していなければ、上以外のステータスの上限は20で固定</t>
+    <rPh sb="1" eb="4">
+      <t>カキュウショク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクヒツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・どんなに高くなっても30が限度で、限界突破とかは考えてないです</t>
+    <rPh sb="5" eb="6">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンド</t>
+    </rPh>
+    <rPh sb="18" eb="22">
+      <t>ゲンカイトッパ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下級で覚えるもの</t>
+    <rPh sb="0" eb="2">
+      <t>カキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上級で覚えるもの</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・別ファイルdata_statusで細かく書くと思います</t>
+    <rPh sb="1" eb="2">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ケン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲイリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dバレット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フォートレス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次の攻撃時、必殺＋15％　命中－15％する</t>
+    <rPh sb="0" eb="1">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>コウゲキジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒッサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃紋開放</t>
+    <rPh sb="2" eb="4">
+      <t>カイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択型：HP－5して3ターン間　攻撃力に呪力をプラスする</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジュリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カリスマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隣の味方の必殺＋10％</t>
+    <rPh sb="0" eb="1">
+      <t>トナリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒッサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銃紋覚醒</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択型：HP－10して5ターン間　命中と回避と必殺＋(10＋lv)％</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>メイチュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒッサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>流星</t>
+    <rPh sb="0" eb="2">
+      <t>リュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択型：HP－10して攻撃力を半分にして5回連続攻撃</t>
+    <rPh sb="11" eb="14">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>レンゾクコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リベンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反撃の時、必殺率+20%</t>
+    <rPh sb="0" eb="2">
+      <t>ハンゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ヒッサツリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>速さ％で、敵から攻撃された時先制攻撃する</t>
+    <rPh sb="0" eb="1">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>センセイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dアグレッサー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライダーやパイロットなど、乗り物に乗った戦うユニットは移動力が高い代わりに燃料というHPとは別のスタミナがある</t>
+    <rPh sb="13" eb="14">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>イドウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ネンリョウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1マスの移動につき1消費される</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ショウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・0になると動けなくなる</t>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自軍ターン1回経過で半分回復、もう1回で全快する</t>
+    <rPh sb="0" eb="2">
+      <t>ジグン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ゼンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャージ中は動けなくなり、回避もゼロになる　</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ開始時は常に満タンになっている</t>
+    <rPh sb="4" eb="7">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無双を防ぐ＋リアルっぽい挙動を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ムソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フセ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライダーとパイロットは燃料の項目も参照してください</t>
+    <rPh sb="11" eb="13">
+      <t>ネンリョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下級職は25、上級職は30が上限</t>
+    <rPh sb="0" eb="3">
+      <t>カキュウショク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジョウキュウショク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・消費アイテムの燃料を使うことで、ターンを使ってチャージできる</t>
+    <rPh sb="1" eb="3">
+      <t>ショウヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ネンリョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>data_unit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵から受けたダメージをそのまま返す</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lv％で敵の装備を壊す</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そのターン移動した分×2を攻撃力に加算する</t>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>急襲</t>
+    <rPh sb="0" eb="2">
+      <t>キュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力％で二回攻撃を行う</t>
+    <rPh sb="0" eb="1">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>撃墜王</t>
+    <rPh sb="0" eb="3">
+      <t>ゲキツイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動後、能力を半分にして再行動できる</t>
+  </si>
+  <si>
+    <t>再移動</t>
+    <rPh sb="0" eb="3">
+      <t>サイイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動後、残った移動力分移動ができる</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>イドウリョク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランニングW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イゴール、サイモン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイン、キース、サラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジェーコブ、フィーナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴィック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャイロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>シーフ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(敵専用ザコ/能力の低いガンナー)</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>アンドロイド</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -1969,29 +2645,20 @@
   </si>
   <si>
     <r>
-      <t>シーフ</t>
+      <t>ハッカー</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>(敵専用ザコ/能力の低いガンナー)</t>
+      <t>(コマンド/返信)</t>
     </r>
-    <rPh sb="4" eb="5">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>センヨウ</t>
-    </rPh>
     <rPh sb="10" eb="12">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ヒク</t>
+      <t>ヘンシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2002,7 +2669,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -2019,31 +2686,12 @@
   </si>
   <si>
     <r>
-      <t>ハッカー</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(コマンド/返信)</t>
-    </r>
-    <rPh sb="10" eb="12">
-      <t>ヘンシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>ヴァルキリー</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -2063,28 +2711,12 @@
   </si>
   <si>
     <r>
-      <t>パラディン</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>(中ボス)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
       <t>デスペラード</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -2098,12 +2730,28 @@
   </si>
   <si>
     <r>
+      <t>パラディン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>(中ボス)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
       <t>アースドラゴン</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="1"/>
+        <color theme="0" tint="-0.14999847407452621"/>
         <rFont val="ＭＳ ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
@@ -2112,660 +2760,12 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>下級職</t>
-    <rPh sb="0" eb="3">
-      <t>カキュウショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上級職</t>
-    <rPh sb="0" eb="3">
-      <t>ジョウキュウショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・黄色は初期からいる兵種</t>
-    <rPh sb="1" eb="3">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショキ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘイシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どのような職業がいるか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>このファイルに書いてあること…</t>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その職業の特徴やステータス関連</t>
-  </si>
-  <si>
-    <t>職業のちょっとした説明</t>
-    <rPh sb="0" eb="2">
-      <t>ショクギョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下級職→上級職の流れ</t>
-    <rPh sb="0" eb="3">
-      <t>カキュウショク</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ジョウキュウショク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>兵種の特徴</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイシュ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※ゲームのヘルプメッセージで出す程度の文量、1つ目にキャッチコピー　2つ目にゲーム中の特徴</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>兵種上限値</t>
-    <rPh sb="0" eb="2">
-      <t>ヘイシュ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジョウゲンチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・全職業一律なところ…HP：60　幸運：30　移動力：15</t>
-    <rPh sb="1" eb="4">
-      <t>ゼンショクギョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチリツ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウウン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>イドウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・下級職は特筆していなければ、上以外のステータスの上限は20で固定</t>
-    <rPh sb="1" eb="4">
-      <t>カキュウショク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トクヒツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・どんなに高くなっても30が限度で、限界突破とかは考えてないです</t>
-    <rPh sb="5" eb="6">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゲンド</t>
-    </rPh>
-    <rPh sb="18" eb="22">
-      <t>ゲンカイトッパ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下級で覚えるもの</t>
-    <rPh sb="0" eb="2">
-      <t>カキュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上級で覚えるもの</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウキュウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オボ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・別ファイルdata_statusで細かく書くと思います</t>
-    <rPh sb="1" eb="2">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>コマ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>オモ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲイリー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヒュー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dバレット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フォートレス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>次の攻撃時、必殺＋15％　命中－15％する</t>
-    <rPh sb="0" eb="1">
-      <t>ツギ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>コウゲキジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒッサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>銃紋開放</t>
-    <rPh sb="2" eb="4">
-      <t>カイホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択型：HP－5して3ターン間　攻撃力に呪力をプラスする</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ジュリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カリスマ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>隣の味方の必殺＋10％</t>
-    <rPh sb="0" eb="1">
-      <t>トナリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ミカタ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒッサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>銃紋覚醒</t>
-    <rPh sb="0" eb="1">
-      <t>ジュウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択型：HP－10して5ターン間　命中と回避と必殺＋(10＋lv)％</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>メイチュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カイヒ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ヒッサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>流星</t>
-    <rPh sb="0" eb="2">
-      <t>リュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択型：HP－10して攻撃力を半分にして5回連続攻撃</t>
-    <rPh sb="11" eb="14">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハンブン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="22" eb="26">
-      <t>レンゾクコウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リベンジ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反撃の時、必殺率+20%</t>
-    <rPh sb="0" eb="2">
-      <t>ハンゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ヒッサツリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カウンター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>速さ％で、敵から攻撃された時先制攻撃する</t>
-    <rPh sb="0" eb="1">
-      <t>ハヤ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>センセイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dアグレッサー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライダーやパイロットなど、乗り物に乗った戦うユニットは移動力が高い代わりに燃料というHPとは別のスタミナがある</t>
-    <rPh sb="13" eb="14">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>タタカ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>イドウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ネンリョウ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ベツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・1マスの移動につき1消費される</t>
-    <rPh sb="5" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ショウヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・0になると動けなくなる</t>
-    <rPh sb="6" eb="7">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自軍ターン1回経過で半分回復、もう1回で全快する</t>
-    <rPh sb="0" eb="2">
-      <t>ジグン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンブン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ゼンカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チャージ中は動けなくなり、回避もゼロになる　</t>
-    <rPh sb="4" eb="5">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カイヒ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステージ開始時は常に満タンになっている</t>
-    <rPh sb="4" eb="7">
-      <t>カイシジ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>マン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無双を防ぐ＋リアルっぽい挙動を行う</t>
-    <rPh sb="0" eb="2">
-      <t>ムソウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フセ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ライダーとパイロットは燃料の項目も参照してください</t>
-    <rPh sb="11" eb="13">
-      <t>ネンリョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下級職は25、上級職は30が上限</t>
-    <rPh sb="0" eb="3">
-      <t>カキュウショク</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ジョウキュウショク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・消費アイテムの燃料を使うことで、ターンを使ってチャージできる</t>
-    <rPh sb="1" eb="3">
-      <t>ショウヒ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ネンリョウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>data_unit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵から受けたダメージをそのまま返す</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>lv％で敵の装備を壊す</t>
-    <rPh sb="4" eb="5">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウビ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>コワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>そのターン移動した分×2を攻撃力に加算する</t>
-    <rPh sb="5" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カサン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>急襲</t>
-    <rPh sb="0" eb="2">
-      <t>キュウシュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>力％で二回攻撃を行う</t>
-    <rPh sb="0" eb="1">
-      <t>チカラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニカイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>撃墜王</t>
-    <rPh sb="0" eb="3">
-      <t>ゲキツイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>行動後、能力を半分にして再行動できる</t>
-  </si>
-  <si>
-    <t>再移動</t>
-    <rPh sb="0" eb="3">
-      <t>サイイドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>行動後、残った移動力分移動ができる</t>
-    <rPh sb="0" eb="2">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ノコ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>イドウリョク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ランニングW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イゴール、サイモン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイン、キース、サラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジェーコブ、フィーナ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ヴィック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャイロ</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2864,6 +2864,43 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2896,7 +2933,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2961,6 +2998,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3257,22 +3315,22 @@
   <sheetData>
     <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" x14ac:dyDescent="0.2">
@@ -3282,11 +3340,11 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -3303,14 +3361,14 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="24" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="25" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3351,10 +3409,10 @@
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="24" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3362,83 +3420,103 @@
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="25" t="s">
         <v>158</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>215</v>
-      </c>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C17" s="26"/>
     </row>
     <row r="18" spans="1:5" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>1</v>
       </c>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="25" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>165</v>
-      </c>
+      <c r="A20" s="22" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="10"/>
+      <c r="A21" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C22" s="10"/>
+      <c r="A22" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="10"/>
+      <c r="A23" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
-        <v>168</v>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22" t="s">
+        <v>230</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>169</v>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>170</v>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22" t="s">
+        <v>231</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>171</v>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22" t="s">
+        <v>233</v>
       </c>
       <c r="E27" s="10"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -3474,47 +3552,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3544,12 +3622,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -3559,12 +3637,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="16.2" x14ac:dyDescent="0.2">
@@ -3614,22 +3692,22 @@
     </row>
     <row r="21" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
@@ -3740,12 +3818,12 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C36" s="7"/>
     </row>
@@ -3761,7 +3839,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
@@ -4190,7 +4268,7 @@
         <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -4198,7 +4276,7 @@
         <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="16.2" x14ac:dyDescent="0.2">
@@ -4227,7 +4305,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B44">
         <v>15</v>
@@ -4560,7 +4638,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
@@ -4607,35 +4685,35 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B30">
         <v>15</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B33">
         <v>10</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4864,7 +4942,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -4912,7 +4990,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -5157,7 +5235,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -5200,7 +5278,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -5225,7 +5303,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -5452,7 +5530,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -5478,26 +5556,26 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B26" s="8">
         <v>10</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D26" s="20"/>
       <c r="E26" s="15"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B28" s="18">
         <v>5</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5724,7 +5802,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -5750,24 +5828,24 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -5997,7 +6075,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -6021,46 +6099,46 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B25">
         <v>5</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B26">
         <v>15</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B29">
         <v>10</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Godlibrary/Excel/data_unit.xlsx
+++ b/Godlibrary/Excel/data_unit.xlsx
@@ -13,15 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
-    <sheet name="テンプレと補足" sheetId="3" r:id="rId2"/>
-    <sheet name="ガンナー" sheetId="2" r:id="rId3"/>
-    <sheet name="ファイター" sheetId="4" r:id="rId4"/>
-    <sheet name="ソルジャー" sheetId="5" r:id="rId5"/>
-    <sheet name="マーセナリー" sheetId="6" r:id="rId6"/>
-    <sheet name="ライダー" sheetId="7" r:id="rId7"/>
-    <sheet name="パイロット" sheetId="8" r:id="rId8"/>
-    <sheet name="レンジャー" sheetId="9" r:id="rId9"/>
-    <sheet name="燃料" sheetId="10" r:id="rId10"/>
+    <sheet name="ENG" sheetId="11" r:id="rId2"/>
+    <sheet name="テンプレと補足" sheetId="3" r:id="rId3"/>
+    <sheet name="ガンナー" sheetId="2" r:id="rId4"/>
+    <sheet name="ファイター" sheetId="4" r:id="rId5"/>
+    <sheet name="ソルジャー" sheetId="5" r:id="rId6"/>
+    <sheet name="マーセナリー" sheetId="6" r:id="rId7"/>
+    <sheet name="ライダー" sheetId="7" r:id="rId8"/>
+    <sheet name="パイロット" sheetId="8" r:id="rId9"/>
+    <sheet name="レンジャー" sheetId="9" r:id="rId10"/>
+    <sheet name="燃料" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="251">
   <si>
     <t>汎用職</t>
     <rPh sb="0" eb="2">
@@ -2758,6 +2759,73 @@
       </rPr>
       <t>(ラスボス)</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gunner</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sniper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assassin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fighter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>marshall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>soldier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mercenary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warrior</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rider</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pilot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>captain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ranger</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lord</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>motorhead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rogue</t>
+  </si>
+  <si>
+    <t>thief</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2997,9 +3065,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3019,6 +3084,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3361,14 +3429,14 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="24" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3409,10 +3477,10 @@
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3420,10 +3488,10 @@
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="24" t="s">
         <v>158</v>
       </c>
       <c r="D15" s="10" t="s">
@@ -3431,85 +3499,85 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C16" s="26"/>
+      <c r="C16" s="25"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="26"/>
+      <c r="C17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="25"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="24" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
       <c r="E22" s="10"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
       <c r="E23" s="10"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21" t="s">
         <v>230</v>
       </c>
       <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22" t="s">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21" t="s">
         <v>231</v>
       </c>
       <c r="E26" s="10"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21" t="s">
         <v>233</v>
       </c>
       <c r="E27" s="10"/>
@@ -3541,6 +3609,299 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.88671875" customWidth="1"/>
+    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+      <c r="D16">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>35</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>25</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <v>25</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <f>SUM(B18:I18)</f>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3602,6 +3963,94 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
@@ -3740,64 +4189,64 @@
       <c r="A27" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>160</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="2"/>
     </row>
     <row r="32" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
@@ -3864,7 +4313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
@@ -4413,7 +4862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
@@ -4722,7 +5171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
@@ -5016,7 +5465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J30"/>
   <sheetViews>
@@ -5304,278 +5753,6 @@
       </c>
       <c r="C30" s="15" t="s">
         <v>212</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="19.2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>20</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>70</v>
-      </c>
-      <c r="C16">
-        <v>35</v>
-      </c>
-      <c r="D16">
-        <v>25</v>
-      </c>
-      <c r="E16">
-        <v>35</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>25</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B18">
-        <v>60</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>25</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <v>23</v>
-      </c>
-      <c r="H18">
-        <v>20</v>
-      </c>
-      <c r="I18">
-        <v>15</v>
-      </c>
-      <c r="J18">
-        <f>SUM(B18:I18)</f>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B26" s="8">
-        <v>10</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>220</v>
-      </c>
-      <c r="B28" s="18">
-        <v>5</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5603,56 +5780,56 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -5689,19 +5866,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -5744,19 +5921,19 @@
         <v>48</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -5770,19 +5947,19 @@
         <v>60</v>
       </c>
       <c r="C18">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>22</v>
       </c>
       <c r="E18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F18">
         <v>30</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H18">
         <v>20</v>
@@ -5792,7 +5969,7 @@
       </c>
       <c r="J18">
         <f>SUM(B18:I18)</f>
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
@@ -5802,7 +5979,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -5828,24 +6005,26 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26">
+        <v>218</v>
+      </c>
+      <c r="B26" s="8">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
-        <v>215</v>
-      </c>
+      <c r="C26" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="15"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28">
+        <v>220</v>
+      </c>
+      <c r="B28" s="18">
         <v>5</v>
       </c>
-      <c r="C28" t="s">
-        <v>217</v>
+      <c r="C28" s="15" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5857,13 +6036,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.88671875" customWidth="1"/>
     <col min="4" max="4" width="3.5546875" bestFit="1" customWidth="1"/>
@@ -5871,61 +6050,61 @@
     <col min="9" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="19.2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>16</v>
       </c>
@@ -5951,39 +6130,36 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>7</v>
       </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>5</v>
-      </c>
-      <c r="J15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -6007,6 +6183,9 @@
       </c>
       <c r="H16">
         <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -6014,22 +6193,19 @@
         <v>48</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -6043,29 +6219,29 @@
         <v>60</v>
       </c>
       <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18">
         <v>22</v>
       </c>
-      <c r="D18">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F18">
         <v>30</v>
       </c>
       <c r="G18">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H18">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I18">
         <v>15</v>
       </c>
       <c r="J18">
         <f>SUM(B18:I18)</f>
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
@@ -6075,70 +6251,50 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A22" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>187</v>
-      </c>
-      <c r="B25">
-        <v>5</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>188</v>
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="B26">
-        <v>15</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>190</v>
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B29">
-        <v>10</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>194</v>
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
